--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURESH GARG\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURESH GARG\Desktop\webdev\multiply3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E080AF18-2714-40FB-A644-DD75467ED0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191B763C-8639-48A1-9383-5622E6AAFA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{016DCFEA-C99E-4225-ACFA-73FDCE02E548}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Title </t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>Sikha Mundra</t>
+  </si>
+  <si>
+    <t>Cyber Security</t>
+  </si>
+  <si>
+    <t>Maxwell Sikar</t>
+  </si>
+  <si>
+    <t>Angela Yu,Maxmilliam</t>
   </si>
 </sst>
 </file>
@@ -411,16 +420,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D65A9CC-3EEE-43E1-897C-A253563A3489}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.90625" customWidth="1"/>
-    <col min="2" max="3" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -439,7 +449,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>43597</v>
@@ -465,6 +475,17 @@
       </c>
       <c r="C4" s="1">
         <v>44642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43859</v>
       </c>
     </row>
   </sheetData>
